--- a/Risiko Penduduk Terkena Tindak Pidana (Per 100.000 Penduduk)/EDITED RPTTP100K/RPTTP100K .xlsx
+++ b/Risiko Penduduk Terkena Tindak Pidana (Per 100.000 Penduduk)/EDITED RPTTP100K/RPTTP100K .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adhit\Downloads\Risiko Penduduk Terkena Tindak Pidana (Per 100.000 Penduduk)\EDITED RPTTP100K\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\korelasi_ipm_rpttp100k\Risiko Penduduk Terkena Tindak Pidana (Per 100.000 Penduduk)\EDITED RPTTP100K\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1AF66BFD-29F9-4155-89F8-826431915AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E095708-2C56-4683-99F5-CA88AFD34D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="264">
   <si>
     <t>Kepolisian Daerah</t>
   </si>
@@ -671,9 +671,6 @@
   </si>
   <si>
     <t>57.00</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>249.00</t>
@@ -820,7 +817,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1675,21 +1672,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
@@ -1716,40 +1713,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2711,37 +2708,21 @@
       <c r="E25" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>217</v>
-      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>56</v>
@@ -2750,31 +2731,31 @@
         <v>212</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>45</v>
       </c>
       <c r="K26" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2788,25 +2769,25 @@
         <v>100</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>85</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I27" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>55</v>
@@ -2815,7 +2796,7 @@
         <v>97</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2823,7 +2804,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>194</v>
@@ -2838,16 +2819,16 @@
         <v>53</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>77</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>189</v>
@@ -2888,10 +2869,10 @@
         <v>45</v>
       </c>
       <c r="J29" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>97</v>
@@ -2911,7 +2892,7 @@
         <v>210</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>62</v>
@@ -2920,16 +2901,16 @@
         <v>97</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>212</v>
       </c>
       <c r="I30" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>83</v>
@@ -2938,7 +2919,7 @@
         <v>64</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2960,27 +2941,13 @@
       <c r="F31" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>217</v>
-      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -2990,7 +2957,7 @@
         <v>98</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>161</v>
@@ -3020,7 +2987,7 @@
         <v>71</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3028,13 +2995,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>168</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>180</v>
@@ -3061,7 +3028,7 @@
         <v>199</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3072,38 +3039,28 @@
         <v>67</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>215</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>217</v>
-      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -3125,7 +3082,7 @@
         <v>61</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>204</v>
@@ -3137,7 +3094,7 @@
         <v>211</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>48</v>
@@ -3160,7 +3117,7 @@
         <v>59</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>111</v>
@@ -3184,11 +3141,9 @@
         <v>37</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.25"/>
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
